--- a/data/Stress Hyperglycemia Variable List.xlsx
+++ b/data/Stress Hyperglycemia Variable List.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEA693F-47F9-4ACD-A2A6-81188653CF22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99AEF8A-E690-4E23-81B1-793F96EF8394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="or_to_icu" sheetId="1" r:id="rId1"/>
     <sheet name="icu48h" sheetId="2" r:id="rId2"/>
+    <sheet name="cgm_summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="685">
   <si>
     <t>variable</t>
   </si>
@@ -605,21 +606,12 @@
     <t>Time 1:</t>
   </si>
   <si>
-    <t>BG...5</t>
-  </si>
-  <si>
     <t>Time 2:</t>
   </si>
   <si>
-    <t>BG...7</t>
-  </si>
-  <si>
     <t>Time 3:</t>
   </si>
   <si>
-    <t>BG...9</t>
-  </si>
-  <si>
     <t>Time 4:</t>
   </si>
   <si>
@@ -704,312 +696,66 @@
     <t>1. Start time</t>
   </si>
   <si>
-    <t>Stop time...38</t>
-  </si>
-  <si>
-    <t>Total time...39</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...40</t>
-  </si>
-  <si>
-    <t>IV insulin units...41</t>
-  </si>
-  <si>
     <t>2. Start time</t>
   </si>
   <si>
-    <t>Stop time...43</t>
-  </si>
-  <si>
-    <t>Total time...44</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...45</t>
-  </si>
-  <si>
-    <t>IV insulin units...46</t>
-  </si>
-  <si>
     <t>3. Start time</t>
   </si>
   <si>
-    <t>Stop time...48</t>
-  </si>
-  <si>
-    <t>Total time...49</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...50</t>
-  </si>
-  <si>
-    <t>IV insulin units...51</t>
-  </si>
-  <si>
     <t>4. Start time</t>
   </si>
   <si>
-    <t>Stop time...53</t>
-  </si>
-  <si>
-    <t>Total time...54</t>
-  </si>
-  <si>
     <t>5. Start time</t>
   </si>
   <si>
-    <t>Stop time...56</t>
-  </si>
-  <si>
-    <t>Total time...57</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...58</t>
-  </si>
-  <si>
-    <t>IV insulin units...59</t>
-  </si>
-  <si>
     <t>6. Start time</t>
   </si>
   <si>
-    <t>Stop time...61</t>
-  </si>
-  <si>
-    <t>Total time...62</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...63</t>
-  </si>
-  <si>
-    <t>IV insulin units...64</t>
-  </si>
-  <si>
     <t>7. Start time</t>
   </si>
   <si>
-    <t>Stop time...66</t>
-  </si>
-  <si>
-    <t>Total time...67</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...68</t>
-  </si>
-  <si>
-    <t>IV insulin units...69</t>
-  </si>
-  <si>
     <t>8. Start time</t>
   </si>
   <si>
-    <t>Stop time...71</t>
-  </si>
-  <si>
-    <t>Total time...72</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...73</t>
-  </si>
-  <si>
-    <t>IV insulin units...74</t>
-  </si>
-  <si>
     <t>9. Start time</t>
   </si>
   <si>
-    <t>Stop time...76</t>
-  </si>
-  <si>
-    <t>Total time...77</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...78</t>
-  </si>
-  <si>
-    <t>IV insulin units...79</t>
-  </si>
-  <si>
     <t>10. Start time</t>
   </si>
   <si>
-    <t>Stop time...81</t>
-  </si>
-  <si>
-    <t>Total time...82</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...83</t>
-  </si>
-  <si>
-    <t>IV insulin units...84</t>
-  </si>
-  <si>
     <t>11. Start time</t>
   </si>
   <si>
-    <t>Stop time...86</t>
-  </si>
-  <si>
-    <t>Total time...87</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...88</t>
-  </si>
-  <si>
-    <t>IV insulin units...89</t>
-  </si>
-  <si>
     <t>12. Start time</t>
   </si>
   <si>
-    <t>Stop time...91</t>
-  </si>
-  <si>
-    <t>Total time...92</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...93</t>
-  </si>
-  <si>
-    <t>IV insulin units...94</t>
-  </si>
-  <si>
     <t>13. Start time</t>
   </si>
   <si>
-    <t>Stop time...96</t>
-  </si>
-  <si>
-    <t>Total time...97</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...98</t>
-  </si>
-  <si>
-    <t>IV insulin units...99</t>
-  </si>
-  <si>
     <t>14. Start time</t>
   </si>
   <si>
-    <t>Stop time...101</t>
-  </si>
-  <si>
-    <t>Total time...102</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...103</t>
-  </si>
-  <si>
-    <t>IV insulin units...104</t>
-  </si>
-  <si>
     <t>15. Start time</t>
   </si>
   <si>
-    <t>Stop time...106</t>
-  </si>
-  <si>
-    <t>Total time...107</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...108</t>
-  </si>
-  <si>
-    <t>IV insulin units...109</t>
-  </si>
-  <si>
     <t>16. Start time</t>
   </si>
   <si>
-    <t>Stop time...111</t>
-  </si>
-  <si>
-    <t>Total time...112</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...113</t>
-  </si>
-  <si>
-    <t>IV insulin units...114</t>
-  </si>
-  <si>
     <t>17. Start time</t>
   </si>
   <si>
-    <t>Stop time...116</t>
-  </si>
-  <si>
-    <t>Total time...117</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...118</t>
-  </si>
-  <si>
-    <t>IV insulin units...119</t>
-  </si>
-  <si>
     <t>18. Start time</t>
   </si>
   <si>
-    <t>Stop time...121</t>
-  </si>
-  <si>
-    <t>Total time...122</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...123</t>
-  </si>
-  <si>
-    <t>IV insulin units...124</t>
-  </si>
-  <si>
     <t>19. Start time</t>
   </si>
   <si>
-    <t>Stop time...126</t>
-  </si>
-  <si>
-    <t>Total time...127</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...128</t>
-  </si>
-  <si>
-    <t>IV insulin units...129</t>
-  </si>
-  <si>
     <t>20. Start time</t>
   </si>
   <si>
-    <t>Stop time...131</t>
-  </si>
-  <si>
-    <t>Total time...132</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...133</t>
-  </si>
-  <si>
-    <t>IV insulin units...134</t>
-  </si>
-  <si>
     <t>21. Start time</t>
   </si>
   <si>
-    <t>Stop time...136</t>
-  </si>
-  <si>
-    <t>Total time...137</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...138</t>
-  </si>
-  <si>
-    <t>IV insulin units...139</t>
-  </si>
-  <si>
     <t>Any SQ Insulin?</t>
   </si>
   <si>
@@ -1040,45 +786,24 @@
     <t>TIME of POCT BFBG</t>
   </si>
   <si>
-    <t>Fixed prandial insulin dose...153</t>
-  </si>
-  <si>
-    <t>Supplemental insulin dose - sliding scale...154</t>
-  </si>
-  <si>
     <t>POCT Lunch BG</t>
   </si>
   <si>
     <t>Time Lunch BG POCT</t>
   </si>
   <si>
-    <t>Fixed prandial insulin dose...157</t>
-  </si>
-  <si>
-    <t>Supplemental insulin dose - sliding scale...158</t>
-  </si>
-  <si>
     <t>POCT Dinner BG</t>
   </si>
   <si>
     <t>Time of POCT Dinner BG</t>
   </si>
   <si>
-    <t>Fixed prandial insulin dose...161</t>
-  </si>
-  <si>
-    <t>Supplemental insulin dose - sliding scale...162</t>
-  </si>
-  <si>
     <t>POCT HS BG</t>
   </si>
   <si>
     <t>Time  of HS BG POCT</t>
   </si>
   <si>
-    <t>Supplemental insulin dose - sliding scale...165</t>
-  </si>
-  <si>
     <t>POCT BG (additional)</t>
   </si>
   <si>
@@ -1094,18 +819,6 @@
     <t>Total short-acting insulin dose</t>
   </si>
   <si>
-    <t>Was Insulin Adjusted?</t>
-  </si>
-  <si>
-    <t>Insulin Adjust</t>
-  </si>
-  <si>
-    <t>IV insulin units...173</t>
-  </si>
-  <si>
-    <t>Insulin - Drip...174</t>
-  </si>
-  <si>
     <t>event</t>
   </si>
   <si>
@@ -1517,19 +1230,853 @@
     <t>total_shortacting_insulin</t>
   </si>
   <si>
-    <t>insulin_adjustment_yn</t>
-  </si>
-  <si>
-    <t>insulin_adjustment_value</t>
-  </si>
-  <si>
-    <t>insulin_ivadj</t>
-  </si>
-  <si>
-    <t>insulin_idradj</t>
-  </si>
-  <si>
     <t>date_icuadmission</t>
+  </si>
+  <si>
+    <t>Levels of point of care of measurement</t>
+  </si>
+  <si>
+    <t>During surgery IV bolus 1 can come anytime</t>
+  </si>
+  <si>
+    <t>During surgery IV bolus 2 can come anytime</t>
+  </si>
+  <si>
+    <t>Continuous infusion 1 is based on a rate</t>
+  </si>
+  <si>
+    <t>Continuous infusion 2 is based on a rate</t>
+  </si>
+  <si>
+    <t>Check protocol</t>
+  </si>
+  <si>
+    <t>Point of care measurements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subcutaneous insulin is given after patient is stabilized; before we give insulin through IV </t>
+  </si>
+  <si>
+    <t>BG...37</t>
+  </si>
+  <si>
+    <t>BG...39</t>
+  </si>
+  <si>
+    <t>BG...41</t>
+  </si>
+  <si>
+    <t>Date of monitoring</t>
+  </si>
+  <si>
+    <t>Stop time...45</t>
+  </si>
+  <si>
+    <t>Total time...46</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...47</t>
+  </si>
+  <si>
+    <t>IV insulin units...48</t>
+  </si>
+  <si>
+    <t>Stop time...50</t>
+  </si>
+  <si>
+    <t>Total time...51</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...52</t>
+  </si>
+  <si>
+    <t>IV insulin units...53</t>
+  </si>
+  <si>
+    <t>Stop time...55</t>
+  </si>
+  <si>
+    <t>Total time...56</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...57</t>
+  </si>
+  <si>
+    <t>IV insulin units...58</t>
+  </si>
+  <si>
+    <t>Stop time...60</t>
+  </si>
+  <si>
+    <t>Total time...61</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...62</t>
+  </si>
+  <si>
+    <t>IV insulin units...63</t>
+  </si>
+  <si>
+    <t>Stop time...65</t>
+  </si>
+  <si>
+    <t>Total time...66</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...67</t>
+  </si>
+  <si>
+    <t>IV insulin units...68</t>
+  </si>
+  <si>
+    <t>Stop time...70</t>
+  </si>
+  <si>
+    <t>Total time...71</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...72</t>
+  </si>
+  <si>
+    <t>IV insulin units...73</t>
+  </si>
+  <si>
+    <t>Stop time...75</t>
+  </si>
+  <si>
+    <t>Total time...76</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...77</t>
+  </si>
+  <si>
+    <t>IV insulin units...78</t>
+  </si>
+  <si>
+    <t>Stop time...80</t>
+  </si>
+  <si>
+    <t>Total time...81</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...82</t>
+  </si>
+  <si>
+    <t>IV insulin units...83</t>
+  </si>
+  <si>
+    <t>Stop time...85</t>
+  </si>
+  <si>
+    <t>Total time...86</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...87</t>
+  </si>
+  <si>
+    <t>IV insulin units...88</t>
+  </si>
+  <si>
+    <t>Stop time...90</t>
+  </si>
+  <si>
+    <t>Total time...91</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...92</t>
+  </si>
+  <si>
+    <t>IV insulin units...93</t>
+  </si>
+  <si>
+    <t>Stop time...95</t>
+  </si>
+  <si>
+    <t>Total time...96</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...97</t>
+  </si>
+  <si>
+    <t>IV insulin units...98</t>
+  </si>
+  <si>
+    <t>Stop time...100</t>
+  </si>
+  <si>
+    <t>Total time...101</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...102</t>
+  </si>
+  <si>
+    <t>IV insulin units...103</t>
+  </si>
+  <si>
+    <t>Stop time...105</t>
+  </si>
+  <si>
+    <t>Total time...106</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...107</t>
+  </si>
+  <si>
+    <t>IV insulin units...108</t>
+  </si>
+  <si>
+    <t>Stop time...110</t>
+  </si>
+  <si>
+    <t>Total time...111</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...112</t>
+  </si>
+  <si>
+    <t>IV insulin units...113</t>
+  </si>
+  <si>
+    <t>Stop time...115</t>
+  </si>
+  <si>
+    <t>Total time...116</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...117</t>
+  </si>
+  <si>
+    <t>IV insulin units...118</t>
+  </si>
+  <si>
+    <t>Stop time...120</t>
+  </si>
+  <si>
+    <t>Total time...121</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...122</t>
+  </si>
+  <si>
+    <t>IV insulin units...123</t>
+  </si>
+  <si>
+    <t>Stop time...125</t>
+  </si>
+  <si>
+    <t>Total time...126</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...127</t>
+  </si>
+  <si>
+    <t>IV insulin units...128</t>
+  </si>
+  <si>
+    <t>Stop time...130</t>
+  </si>
+  <si>
+    <t>Total time...131</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...132</t>
+  </si>
+  <si>
+    <t>IV insulin units...133</t>
+  </si>
+  <si>
+    <t>Stop time...135</t>
+  </si>
+  <si>
+    <t>Total time...136</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...137</t>
+  </si>
+  <si>
+    <t>IV insulin units...138</t>
+  </si>
+  <si>
+    <t>Stop time...140</t>
+  </si>
+  <si>
+    <t>Total time...141</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...142</t>
+  </si>
+  <si>
+    <t>IV insulin units...143</t>
+  </si>
+  <si>
+    <t>Stop time...145</t>
+  </si>
+  <si>
+    <t>Total time...146</t>
+  </si>
+  <si>
+    <t>Insulin - Drip...147</t>
+  </si>
+  <si>
+    <t>IV insulin units...148</t>
+  </si>
+  <si>
+    <t>SQ - Time 3</t>
+  </si>
+  <si>
+    <t>3. SQ insulin units</t>
+  </si>
+  <si>
+    <t>Glargine/levemir</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Fixed prandial insulin dose...166</t>
+  </si>
+  <si>
+    <t>Supplemental insulin dose - sliding scale...167</t>
+  </si>
+  <si>
+    <t>Fixed prandial insulin dose...170</t>
+  </si>
+  <si>
+    <t>Supplemental insulin dose - sliding scale...171</t>
+  </si>
+  <si>
+    <t>Fixed prandial insulin dose...174</t>
+  </si>
+  <si>
+    <t>Supplemental insulin dose - sliding scale...175</t>
+  </si>
+  <si>
+    <t>Supplemental insulin dose - sliding scale...178</t>
+  </si>
+  <si>
+    <t>date_monitoring</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age at time of consent</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Other Race</t>
+  </si>
+  <si>
+    <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>BMI (calculated)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>bmi</t>
+  </si>
+  <si>
+    <t>otherrace</t>
+  </si>
+  <si>
+    <t>time_sq3</t>
+  </si>
+  <si>
+    <t>insulin_sq3</t>
+  </si>
+  <si>
+    <t>glargine</t>
+  </si>
+  <si>
+    <t>time2</t>
+  </si>
+  <si>
+    <t>Not sure of the date - used date of icu admission</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>date_cgm_placement</t>
+  </si>
+  <si>
+    <t>date_cgm_last</t>
+  </si>
+  <si>
+    <t>percent_cgm_wear</t>
+  </si>
+  <si>
+    <t>missingness_seq</t>
+  </si>
+  <si>
+    <t>num_days_good_data</t>
+  </si>
+  <si>
+    <t>total_sensor_readings</t>
+  </si>
+  <si>
+    <t>average_sensor</t>
+  </si>
+  <si>
+    <t>estimated_a1c</t>
+  </si>
+  <si>
+    <t>gmi</t>
+  </si>
+  <si>
+    <t>q1_sensor</t>
+  </si>
+  <si>
+    <t>median_sensor</t>
+  </si>
+  <si>
+    <t>q3_sensor</t>
+  </si>
+  <si>
+    <t>standard_deviation</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>min_sensor</t>
+  </si>
+  <si>
+    <t>max_sensor</t>
+  </si>
+  <si>
+    <t>excursions_over_120</t>
+  </si>
+  <si>
+    <t>min_spent_over_120</t>
+  </si>
+  <si>
+    <t>percent_time_over_120</t>
+  </si>
+  <si>
+    <t>excursions_over_140</t>
+  </si>
+  <si>
+    <t>min_spent_over_140</t>
+  </si>
+  <si>
+    <t>percent_time_over_140</t>
+  </si>
+  <si>
+    <t>excursions_over_180</t>
+  </si>
+  <si>
+    <t>min_spent_over_180</t>
+  </si>
+  <si>
+    <t>percent_time_over_180</t>
+  </si>
+  <si>
+    <t>excursions_over_200</t>
+  </si>
+  <si>
+    <t>min_spent_over_200</t>
+  </si>
+  <si>
+    <t>percent_time_over_200</t>
+  </si>
+  <si>
+    <t>avg_excur_over_140_per_day</t>
+  </si>
+  <si>
+    <t>avg_excur_over_200_per_day</t>
+  </si>
+  <si>
+    <t>excursions_over_250</t>
+  </si>
+  <si>
+    <t>min_spent_over_250</t>
+  </si>
+  <si>
+    <t>percent_time_over_250</t>
+  </si>
+  <si>
+    <t>excursions_under_54</t>
+  </si>
+  <si>
+    <t>min_spent_under_54</t>
+  </si>
+  <si>
+    <t>percent_time_under_54</t>
+  </si>
+  <si>
+    <t>excursions_under_60</t>
+  </si>
+  <si>
+    <t>min_spent_under_60</t>
+  </si>
+  <si>
+    <t>percent_time_under_60</t>
+  </si>
+  <si>
+    <t>excursions_under_70</t>
+  </si>
+  <si>
+    <t>min_spent_under_70</t>
+  </si>
+  <si>
+    <t>percent_time_under_70</t>
+  </si>
+  <si>
+    <t>min_spent_70_180</t>
+  </si>
+  <si>
+    <t>percent_time_70_180</t>
+  </si>
+  <si>
+    <t>daytime_auc</t>
+  </si>
+  <si>
+    <t>min_spent_70_180_day</t>
+  </si>
+  <si>
+    <t>percent_time_70_180_day</t>
+  </si>
+  <si>
+    <t>min_spent_under_54_day</t>
+  </si>
+  <si>
+    <t>percent_time_under_54_day</t>
+  </si>
+  <si>
+    <t>min_spent_under_60_day</t>
+  </si>
+  <si>
+    <t>percent_time_under_60_day</t>
+  </si>
+  <si>
+    <t>min_spent_under_70_day</t>
+  </si>
+  <si>
+    <t>percent_time_under_70_day</t>
+  </si>
+  <si>
+    <t>min_spent_over_180_day</t>
+  </si>
+  <si>
+    <t>percent_time_over_180_day</t>
+  </si>
+  <si>
+    <t>min_spent_over_200_day</t>
+  </si>
+  <si>
+    <t>percent_time_over_200_day</t>
+  </si>
+  <si>
+    <t>min_spent_over_250_day</t>
+  </si>
+  <si>
+    <t>percent_time_over_250_day</t>
+  </si>
+  <si>
+    <t>daytime_avg_sensor_glucose</t>
+  </si>
+  <si>
+    <t>daytime_min_sensor_glucose</t>
+  </si>
+  <si>
+    <t>daytime_max_sensor_glucose</t>
+  </si>
+  <si>
+    <t>daytime_sd</t>
+  </si>
+  <si>
+    <t>evetime_auc</t>
+  </si>
+  <si>
+    <t>min_spent_70_180_eve</t>
+  </si>
+  <si>
+    <t>percent_time_70_180_eve</t>
+  </si>
+  <si>
+    <t>min_spent_under_54_eve</t>
+  </si>
+  <si>
+    <t>percent_time_under_54_eve</t>
+  </si>
+  <si>
+    <t>min_spent_under_60_eve</t>
+  </si>
+  <si>
+    <t>percent_time_under_60_eve</t>
+  </si>
+  <si>
+    <t>min_spent_under_70_eve</t>
+  </si>
+  <si>
+    <t>percent_time_under_70_eve</t>
+  </si>
+  <si>
+    <t>min_spent_over_180_eve</t>
+  </si>
+  <si>
+    <t>percent_time_over_180_eve</t>
+  </si>
+  <si>
+    <t>min_spent_over_200_eve</t>
+  </si>
+  <si>
+    <t>percent_time_over_200_eve</t>
+  </si>
+  <si>
+    <t>min_spent_over_250_eve</t>
+  </si>
+  <si>
+    <t>percent_time_over_250_eve</t>
+  </si>
+  <si>
+    <t>evetime_avg_sensor_glucose</t>
+  </si>
+  <si>
+    <t>evetime_min_sensor_glucose</t>
+  </si>
+  <si>
+    <t>evetime_max_sensor_glucose</t>
+  </si>
+  <si>
+    <t>evetime_sd</t>
+  </si>
+  <si>
+    <t>day_night_sensor_ratio</t>
+  </si>
+  <si>
+    <t>nighttime_auc</t>
+  </si>
+  <si>
+    <t>min_spent_70_180_night</t>
+  </si>
+  <si>
+    <t>percent_time_70_180_night</t>
+  </si>
+  <si>
+    <t>min_spent_under_54_night</t>
+  </si>
+  <si>
+    <t>percent_time_under_54_night</t>
+  </si>
+  <si>
+    <t>min_spent_under_60_night</t>
+  </si>
+  <si>
+    <t>percent_time_under_60_night</t>
+  </si>
+  <si>
+    <t>min_spent_under_70_night</t>
+  </si>
+  <si>
+    <t>percent_time_under_70_night</t>
+  </si>
+  <si>
+    <t>min_spent_over_180_night</t>
+  </si>
+  <si>
+    <t>percent_time_over_180_night</t>
+  </si>
+  <si>
+    <t>min_spent_over_200_night</t>
+  </si>
+  <si>
+    <t>percent_time_over_200_night</t>
+  </si>
+  <si>
+    <t>min_spent_over_250_night</t>
+  </si>
+  <si>
+    <t>percent_time_over_250_night</t>
+  </si>
+  <si>
+    <t>nighttime_avg_sens_glucose</t>
+  </si>
+  <si>
+    <t>nighttime_min_sens_glucose</t>
+  </si>
+  <si>
+    <t>nighttime_max_sens_glucose</t>
+  </si>
+  <si>
+    <t>nighttime_sd</t>
+  </si>
+  <si>
+    <t>day_sleep_sensor_ratio</t>
+  </si>
+  <si>
+    <t>sleeptime_auc</t>
+  </si>
+  <si>
+    <t>min_spent_70_180_sleep</t>
+  </si>
+  <si>
+    <t>percent_time_70_180_sleep</t>
+  </si>
+  <si>
+    <t>min_spent_under_54_sleep</t>
+  </si>
+  <si>
+    <t>percent_time_under_54_sleep</t>
+  </si>
+  <si>
+    <t>min_spent_under_60_sleep</t>
+  </si>
+  <si>
+    <t>percent_time_under_60_sleep</t>
+  </si>
+  <si>
+    <t>min_spent_under_70_sleep</t>
+  </si>
+  <si>
+    <t>percent_time_under_70_sleep</t>
+  </si>
+  <si>
+    <t>min_spent_over_180_sleep</t>
+  </si>
+  <si>
+    <t>percent_time_over_180_sleep</t>
+  </si>
+  <si>
+    <t>min_spent_over_200_sleep</t>
+  </si>
+  <si>
+    <t>percent_time_over_200_sleep</t>
+  </si>
+  <si>
+    <t>min_spent_over_250_sleep</t>
+  </si>
+  <si>
+    <t>percent_time_over_250_sleep</t>
+  </si>
+  <si>
+    <t>sleeptime_avg_sens_glucose</t>
+  </si>
+  <si>
+    <t>sleeptime_min_sens_glucose</t>
+  </si>
+  <si>
+    <t>sleeptime_max_sens_glucose</t>
+  </si>
+  <si>
+    <t>sleeptime_sd</t>
+  </si>
+  <si>
+    <t>total_auc</t>
+  </si>
+  <si>
+    <t>average_auc_per_day</t>
+  </si>
+  <si>
+    <t>auc_over_180</t>
+  </si>
+  <si>
+    <t>average_auc_180</t>
+  </si>
+  <si>
+    <t>auc_over_250</t>
+  </si>
+  <si>
+    <t>average_auc_250</t>
+  </si>
+  <si>
+    <t>auc_under_54</t>
+  </si>
+  <si>
+    <t>average_auc_54</t>
+  </si>
+  <si>
+    <t>auc_under_70</t>
+  </si>
+  <si>
+    <t>average_auc_70</t>
+  </si>
+  <si>
+    <t>n_peak</t>
+  </si>
+  <si>
+    <t>avg_smoothedpeak_size</t>
+  </si>
+  <si>
+    <t>sd_smoothedpeak_size</t>
+  </si>
+  <si>
+    <t>avg_peak_time_diff</t>
+  </si>
+  <si>
+    <t>avg_peak_size</t>
+  </si>
+  <si>
+    <t>sd_peak_size</t>
+  </si>
+  <si>
+    <t>n_pits</t>
+  </si>
+  <si>
+    <t>avg_smoothedpits_size</t>
+  </si>
+  <si>
+    <t>sd_smoothedpits_size</t>
+  </si>
+  <si>
+    <t>avg_pits_time_diff</t>
+  </si>
+  <si>
+    <t>avg_pits_size</t>
+  </si>
+  <si>
+    <t>sd_pits_size</t>
+  </si>
+  <si>
+    <t>avg_time_diff</t>
+  </si>
+  <si>
+    <t>avg_time_diff_abs</t>
+  </si>
+  <si>
+    <t>r_mage</t>
+  </si>
+  <si>
+    <t>r_mage_abs</t>
+  </si>
+  <si>
+    <t>r_mage_time_diff</t>
+  </si>
+  <si>
+    <t>r_mage_abs_time_diff</t>
+  </si>
+  <si>
+    <t>j_index</t>
+  </si>
+  <si>
+    <t>conga_1</t>
+  </si>
+  <si>
+    <t>modd</t>
+  </si>
+  <si>
+    <t>lbgi</t>
+  </si>
+  <si>
+    <t>hbgi</t>
   </si>
 </sst>
 </file>
@@ -1553,18 +2100,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1579,10 +2120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1865,14 +2405,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="56.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1880,17 +2421,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1898,7 +2439,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1906,7 +2447,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1914,7 +2455,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1922,23 +2463,29 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1946,7 +2493,7 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1954,15 +2501,18 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1970,7 +2520,7 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1978,7 +2528,7 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1986,7 +2536,7 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1994,7 +2544,7 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2002,135 +2552,135 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2138,7 +2688,7 @@
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2146,7 +2696,7 @@
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2154,7 +2704,7 @@
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2162,7 +2712,7 @@
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2170,7 +2720,7 @@
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2178,15 +2728,18 @@
       <c r="A38" t="s">
         <v>39</v>
       </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2194,15 +2747,18 @@
       <c r="A40" t="s">
         <v>41</v>
       </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2210,15 +2766,18 @@
       <c r="A42" t="s">
         <v>43</v>
       </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2226,7 +2785,7 @@
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2234,7 +2793,7 @@
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2242,7 +2801,7 @@
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2250,391 +2809,394 @@
       <c r="A47" t="s">
         <v>48</v>
       </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>67</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="C67" t="s">
+      <c r="B67" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>74</v>
       </c>
-      <c r="C73" t="s">
+      <c r="B73" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>76</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B75" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B76" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>78</v>
       </c>
-      <c r="C77" t="s">
+      <c r="B77" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>79</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B78" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>81</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B80" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>83</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B82" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>84</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B83" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>85</v>
       </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>86</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B85" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>88</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>89</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B88" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>90</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B89" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>91</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B90" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>92</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B91" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>93</v>
       </c>
-      <c r="C92" t="s">
+      <c r="B92" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>94</v>
       </c>
-      <c r="C93" t="s">
+      <c r="B93" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>95</v>
       </c>
-      <c r="C94" t="s">
+      <c r="B94" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>96</v>
       </c>
-      <c r="C95" t="s">
+      <c r="B95" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2646,26 +3208,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC267FE4-393C-41AC-8C1C-EE961F6FCDCC}">
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="56.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2673,1404 +3239,2287 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>192</v>
       </c>
-      <c r="B4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>193</v>
       </c>
-      <c r="B5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>194</v>
       </c>
-      <c r="B6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>195</v>
       </c>
-      <c r="B7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>201</v>
       </c>
-      <c r="B13" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>204</v>
-      </c>
       <c r="B16" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B30" t="s">
-        <v>391</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B31" t="s">
-        <v>376</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B34" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B36" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B37" t="s">
-        <v>362</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>226</v>
+        <v>411</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B39" t="s">
-        <v>395</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>412</v>
       </c>
       <c r="B40" t="s">
-        <v>396</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>230</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
       <c r="B44" t="s">
-        <v>397</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B45" t="s">
-        <v>398</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>415</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>416</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>417</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>237</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s">
-        <v>399</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
-        <v>400</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>419</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>241</v>
+      <c r="A53" t="s">
+        <v>421</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>242</v>
+      <c r="A54" t="s">
+        <v>422</v>
       </c>
       <c r="B54" t="s">
-        <v>401</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>243</v>
+      <c r="A55" t="s">
+        <v>225</v>
       </c>
       <c r="B55" t="s">
-        <v>402</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" t="s">
+        <v>423</v>
+      </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" t="s">
+        <v>424</v>
+      </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>244</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>245</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s">
-        <v>403</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B60" t="s">
-        <v>404</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>247</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>248</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>249</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s">
-        <v>405</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B65" t="s">
-        <v>406</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>252</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>253</v>
+        <v>432</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>255</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s">
-        <v>407</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="B70" t="s">
-        <v>408</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>257</v>
+        <v>435</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>258</v>
+        <v>436</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>259</v>
+        <v>437</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>260</v>
+        <v>438</v>
       </c>
       <c r="B74" t="s">
-        <v>409</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B75" t="s">
-        <v>410</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>262</v>
+        <v>439</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>263</v>
+        <v>440</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>264</v>
+        <v>441</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>265</v>
+        <v>442</v>
       </c>
       <c r="B79" t="s">
-        <v>411</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s">
-        <v>412</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>267</v>
+        <v>443</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>268</v>
+        <v>444</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>269</v>
+        <v>445</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>270</v>
+        <v>446</v>
       </c>
       <c r="B84" t="s">
-        <v>413</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="B85" t="s">
-        <v>414</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>272</v>
+        <v>447</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>273</v>
+        <v>448</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>274</v>
+        <v>449</v>
       </c>
       <c r="B88" t="s">
-        <v>415</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="B89" t="s">
-        <v>416</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="B90" t="s">
-        <v>417</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>451</v>
       </c>
       <c r="B91" t="s">
-        <v>418</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="B92" t="s">
-        <v>419</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>453</v>
       </c>
       <c r="B93" t="s">
-        <v>420</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="B94" t="s">
-        <v>421</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="B95" t="s">
-        <v>422</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>282</v>
+        <v>455</v>
       </c>
       <c r="B96" t="s">
-        <v>423</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>456</v>
       </c>
       <c r="B97" t="s">
-        <v>424</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>284</v>
+        <v>457</v>
       </c>
       <c r="B98" t="s">
-        <v>425</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>285</v>
+        <v>458</v>
       </c>
       <c r="B99" t="s">
-        <v>426</v>
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="B100" t="s">
-        <v>427</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>287</v>
+        <v>459</v>
       </c>
       <c r="B101" t="s">
-        <v>428</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>288</v>
+        <v>460</v>
       </c>
       <c r="B102" t="s">
-        <v>429</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>289</v>
+        <v>461</v>
       </c>
       <c r="B103" t="s">
-        <v>430</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>290</v>
+        <v>462</v>
       </c>
       <c r="B104" t="s">
-        <v>431</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="B105" t="s">
-        <v>432</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>292</v>
+        <v>463</v>
       </c>
       <c r="B106" t="s">
-        <v>433</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>293</v>
+        <v>464</v>
       </c>
       <c r="B107" t="s">
-        <v>434</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>294</v>
+        <v>465</v>
       </c>
       <c r="B108" t="s">
-        <v>435</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>295</v>
+        <v>466</v>
       </c>
       <c r="B109" t="s">
-        <v>436</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="B110" t="s">
-        <v>437</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>297</v>
+        <v>467</v>
       </c>
       <c r="B111" t="s">
-        <v>438</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>298</v>
+        <v>468</v>
       </c>
       <c r="B112" t="s">
-        <v>439</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>299</v>
+        <v>469</v>
       </c>
       <c r="B113" t="s">
-        <v>440</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="B114" t="s">
-        <v>441</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="B115" t="s">
-        <v>442</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>302</v>
+        <v>471</v>
       </c>
       <c r="B116" t="s">
-        <v>443</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>303</v>
+        <v>472</v>
       </c>
       <c r="B117" t="s">
-        <v>444</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>304</v>
+        <v>473</v>
       </c>
       <c r="B118" t="s">
-        <v>445</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>305</v>
+        <v>474</v>
       </c>
       <c r="B119" t="s">
-        <v>446</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>447</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>307</v>
+        <v>475</v>
       </c>
       <c r="B121" t="s">
-        <v>448</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>308</v>
+        <v>476</v>
       </c>
       <c r="B122" t="s">
-        <v>449</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>309</v>
+        <v>477</v>
       </c>
       <c r="B123" t="s">
-        <v>450</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>310</v>
+        <v>478</v>
       </c>
       <c r="B124" t="s">
-        <v>451</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="B125" t="s">
-        <v>452</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>312</v>
+        <v>479</v>
       </c>
       <c r="B126" t="s">
-        <v>453</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="B127" t="s">
-        <v>454</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>314</v>
+        <v>481</v>
       </c>
       <c r="B128" t="s">
-        <v>455</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>315</v>
+        <v>482</v>
       </c>
       <c r="B129" t="s">
-        <v>456</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="B130" t="s">
-        <v>457</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>317</v>
+        <v>483</v>
       </c>
       <c r="B131" t="s">
-        <v>458</v>
+        <v>355</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>318</v>
+        <v>484</v>
       </c>
       <c r="B132" t="s">
-        <v>459</v>
+        <v>356</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>319</v>
+        <v>485</v>
       </c>
       <c r="B133" t="s">
-        <v>460</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>320</v>
+        <v>486</v>
       </c>
       <c r="B134" t="s">
-        <v>461</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>462</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>322</v>
+        <v>487</v>
       </c>
       <c r="B136" t="s">
-        <v>463</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>323</v>
+        <v>488</v>
       </c>
       <c r="B137" t="s">
-        <v>464</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>324</v>
+        <v>489</v>
       </c>
       <c r="B138" t="s">
-        <v>465</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>325</v>
+        <v>490</v>
       </c>
       <c r="B139" t="s">
-        <v>466</v>
+        <v>363</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B140" t="s">
-        <v>467</v>
+        <v>364</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>327</v>
+        <v>491</v>
       </c>
       <c r="B141" t="s">
-        <v>468</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>328</v>
+        <v>492</v>
       </c>
       <c r="B142" t="s">
-        <v>469</v>
+        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>329</v>
+        <v>493</v>
       </c>
       <c r="B143" t="s">
-        <v>470</v>
+        <v>367</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>330</v>
+        <v>494</v>
       </c>
       <c r="B144" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="B145" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>332</v>
+        <v>495</v>
       </c>
       <c r="B146" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>333</v>
+        <v>496</v>
       </c>
       <c r="B147" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>334</v>
+        <v>497</v>
       </c>
       <c r="B148" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>498</v>
+      </c>
+      <c r="B149" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>244</v>
+      </c>
+      <c r="B150" t="s">
+        <v>374</v>
+      </c>
+      <c r="C150" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>245</v>
+      </c>
+      <c r="B151" t="s">
+        <v>377</v>
+      </c>
+      <c r="C151" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>246</v>
+      </c>
+      <c r="B152" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>247</v>
+      </c>
+      <c r="B153" t="s">
+        <v>378</v>
+      </c>
+      <c r="C153" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>248</v>
+      </c>
+      <c r="B154" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>499</v>
+      </c>
+      <c r="B155" t="s">
+        <v>523</v>
+      </c>
+      <c r="C155" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>500</v>
+      </c>
+      <c r="B156" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>249</v>
+      </c>
+      <c r="B157" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>94</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B158" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>95</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B159" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>96</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B160" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>335</v>
-      </c>
-      <c r="B152" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>336</v>
-      </c>
-      <c r="B153" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>337</v>
-      </c>
-      <c r="B154" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>338</v>
-      </c>
-      <c r="B155" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>339</v>
-      </c>
-      <c r="B156" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>340</v>
-      </c>
-      <c r="B157" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>341</v>
-      </c>
-      <c r="B158" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>342</v>
-      </c>
-      <c r="B159" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>343</v>
-      </c>
-      <c r="B160" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
-        <v>485</v>
+        <v>380</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
-        <v>486</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>346</v>
+        <v>501</v>
       </c>
       <c r="B163" t="s">
-        <v>487</v>
+        <v>525</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>347</v>
+        <v>502</v>
       </c>
       <c r="B164" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>348</v>
+        <v>252</v>
       </c>
       <c r="B165" t="s">
-        <v>489</v>
+        <v>382</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="B166" t="s">
-        <v>490</v>
+        <v>384</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>350</v>
+        <v>503</v>
       </c>
       <c r="B167" t="s">
-        <v>491</v>
+        <v>386</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>351</v>
+        <v>504</v>
       </c>
       <c r="B168" t="s">
-        <v>492</v>
+        <v>387</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="B169" t="s">
-        <v>493</v>
+        <v>383</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="B170" t="s">
-        <v>494</v>
+        <v>385</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>354</v>
+        <v>505</v>
       </c>
       <c r="B171" t="s">
-        <v>495</v>
+        <v>388</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>355</v>
+        <v>506</v>
       </c>
       <c r="B172" t="s">
-        <v>496</v>
+        <v>389</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="B173" t="s">
-        <v>497</v>
+        <v>390</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="B174" t="s">
-        <v>498</v>
+        <v>391</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>358</v>
+        <v>507</v>
       </c>
       <c r="B175" t="s">
-        <v>499</v>
+        <v>392</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>500</v>
+      <c r="A176" t="s">
+        <v>508</v>
+      </c>
+      <c r="B176" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>501</v>
+      <c r="A177" t="s">
+        <v>258</v>
+      </c>
+      <c r="B177" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>259</v>
+      </c>
+      <c r="B178" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>509</v>
+      </c>
+      <c r="B179" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>260</v>
+      </c>
+      <c r="B180" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>261</v>
+      </c>
+      <c r="B181" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>262</v>
+      </c>
+      <c r="B182" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>263</v>
+      </c>
+      <c r="B183" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>264</v>
+      </c>
+      <c r="B184" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07280A18-1BD1-4FDB-AB03-8EC8E7A45C01}">
+  <dimension ref="A1:A158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Stress Hyperglycemia Variable List.xlsx
+++ b/data/Stress Hyperglycemia Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99AEF8A-E690-4E23-81B1-793F96EF8394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8595838F-932A-4FB7-856F-536924D99A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="or_to_icu" sheetId="1" r:id="rId1"/>
@@ -2405,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4720,8 +4720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07280A18-1BD1-4FDB-AB03-8EC8E7A45C01}">
   <dimension ref="A1:A158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4754,7 +4754,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>532</v>
       </c>

--- a/data/Stress Hyperglycemia Variable List.xlsx
+++ b/data/Stress Hyperglycemia Variable List.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8595838F-932A-4FB7-856F-536924D99A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB99378-32C5-4CC8-91FF-F85EF9499F51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="or_to_icu" sheetId="1" r:id="rId1"/>
-    <sheet name="icu48h" sheetId="2" r:id="rId2"/>
-    <sheet name="cgm_summary" sheetId="3" r:id="rId3"/>
+    <sheet name="dt_surgery" sheetId="4" r:id="rId2"/>
+    <sheet name="icu48h" sheetId="2" r:id="rId3"/>
+    <sheet name="cgm_summary" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="690">
   <si>
     <t>variable</t>
   </si>
@@ -2077,6 +2078,21 @@
   </si>
   <si>
     <t>hbgi</t>
+  </si>
+  <si>
+    <t>Surgery start time</t>
+  </si>
+  <si>
+    <t>Surgery End Time</t>
+  </si>
+  <si>
+    <t>Length of surgery</t>
+  </si>
+  <si>
+    <t>surgery_start_time</t>
+  </si>
+  <si>
+    <t>surgery_end_time</t>
   </si>
 </sst>
 </file>
@@ -2405,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3207,6 +3223,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF6723E-FEDE-4F29-9272-6E8BFEC4F8C1}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="59.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC267FE4-393C-41AC-8C1C-EE961F6FCDCC}">
   <dimension ref="A1:C184"/>
   <sheetViews>
@@ -4716,7 +4791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07280A18-1BD1-4FDB-AB03-8EC8E7A45C01}">
   <dimension ref="A1:A158"/>
   <sheetViews>

--- a/data/Stress Hyperglycemia Variable List.xlsx
+++ b/data/Stress Hyperglycemia Variable List.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB99378-32C5-4CC8-91FF-F85EF9499F51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA2925D-3E9B-408B-BAE0-0838B272CF2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="or_to_icu" sheetId="1" r:id="rId1"/>
     <sheet name="dt_surgery" sheetId="4" r:id="rId2"/>
     <sheet name="icu48h" sheetId="2" r:id="rId3"/>
     <sheet name="cgm_summary" sheetId="3" r:id="rId4"/>
+    <sheet name="aha glucose" sheetId="5" r:id="rId5"/>
+    <sheet name="aha patient" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="887">
   <si>
     <t>variable</t>
   </si>
@@ -2093,6 +2095,597 @@
   </si>
   <si>
     <t>surgery_end_time</t>
+  </si>
+  <si>
+    <t>OR CGM value -Time 1</t>
+  </si>
+  <si>
+    <t>OR CGM Value1</t>
+  </si>
+  <si>
+    <t>OR CGM -Time2</t>
+  </si>
+  <si>
+    <t>OR CGM Value2</t>
+  </si>
+  <si>
+    <t>OR CGM -Time3</t>
+  </si>
+  <si>
+    <t>OR CGM Value3</t>
+  </si>
+  <si>
+    <t>OR CGM -Time 4</t>
+  </si>
+  <si>
+    <t>OR CGM Value 4</t>
+  </si>
+  <si>
+    <t>OR CGM -Time 5</t>
+  </si>
+  <si>
+    <t>OR CGM Value 5</t>
+  </si>
+  <si>
+    <t>OR CGM -Time 6</t>
+  </si>
+  <si>
+    <t>OR CGM Value 6</t>
+  </si>
+  <si>
+    <t>OR CGM -Time 7</t>
+  </si>
+  <si>
+    <t>OR CGM Value 7</t>
+  </si>
+  <si>
+    <t>OR CGM -Time 8</t>
+  </si>
+  <si>
+    <t>OR CGM Value 8</t>
+  </si>
+  <si>
+    <t>OR CGM -Time 9</t>
+  </si>
+  <si>
+    <t>OR CGM Value 9</t>
+  </si>
+  <si>
+    <t>OR CGM -Time 10</t>
+  </si>
+  <si>
+    <t>OR CGM Value 10</t>
+  </si>
+  <si>
+    <t>OR CGM -Time 11</t>
+  </si>
+  <si>
+    <t>OR CGM Value 11</t>
+  </si>
+  <si>
+    <t>OR CGM -Time 12</t>
+  </si>
+  <si>
+    <t>OR CGM Value 12</t>
+  </si>
+  <si>
+    <t>OR CGM -Time 13</t>
+  </si>
+  <si>
+    <t>OR CGM Value 13</t>
+  </si>
+  <si>
+    <t>OR CGM -Time 14</t>
+  </si>
+  <si>
+    <t>OR CGM Value 14</t>
+  </si>
+  <si>
+    <t>OR Time 15:</t>
+  </si>
+  <si>
+    <t>OR Time 16:</t>
+  </si>
+  <si>
+    <t>OR Time 17:</t>
+  </si>
+  <si>
+    <t>OR Time 18:</t>
+  </si>
+  <si>
+    <t>OR Time 19:</t>
+  </si>
+  <si>
+    <t>OR Time 20:</t>
+  </si>
+  <si>
+    <t>Number of BG values</t>
+  </si>
+  <si>
+    <t>Hyperglycemia BG &gt;180mg/dL</t>
+  </si>
+  <si>
+    <t>Hypoglycemia BG &lt; =70mg/dL and &gt;40mg/dL</t>
+  </si>
+  <si>
+    <t>Hypoglycemia BG &lt; =40mg/dL</t>
+  </si>
+  <si>
+    <t>Complete?</t>
+  </si>
+  <si>
+    <t>glucose_or15</t>
+  </si>
+  <si>
+    <t>time_or15</t>
+  </si>
+  <si>
+    <t>time_or17</t>
+  </si>
+  <si>
+    <t>time_or18</t>
+  </si>
+  <si>
+    <t>time_or19</t>
+  </si>
+  <si>
+    <t>time_or20</t>
+  </si>
+  <si>
+    <t>time_or16</t>
+  </si>
+  <si>
+    <t>glucose_or16</t>
+  </si>
+  <si>
+    <t>glucose_or17</t>
+  </si>
+  <si>
+    <t>glucose_or18</t>
+  </si>
+  <si>
+    <t>glucose_or19</t>
+  </si>
+  <si>
+    <t>glucose_or20</t>
+  </si>
+  <si>
+    <t>OR BG...8</t>
+  </si>
+  <si>
+    <t>OR BG...12</t>
+  </si>
+  <si>
+    <t>OR BG...16</t>
+  </si>
+  <si>
+    <t>OR BG...20</t>
+  </si>
+  <si>
+    <t>OR BG...24</t>
+  </si>
+  <si>
+    <t>OR BG...28</t>
+  </si>
+  <si>
+    <t>OR BG...32</t>
+  </si>
+  <si>
+    <t>OR BG...38</t>
+  </si>
+  <si>
+    <t>OR BG...40</t>
+  </si>
+  <si>
+    <t>OR BG...44</t>
+  </si>
+  <si>
+    <t>OR BG...48</t>
+  </si>
+  <si>
+    <t>OR BG...52</t>
+  </si>
+  <si>
+    <t>OR BG...56</t>
+  </si>
+  <si>
+    <t>OR BG...60</t>
+  </si>
+  <si>
+    <t>OR BG...64</t>
+  </si>
+  <si>
+    <t>OR BG...66</t>
+  </si>
+  <si>
+    <t>OR BG...68</t>
+  </si>
+  <si>
+    <t>OR BG...70</t>
+  </si>
+  <si>
+    <t>OR BG...72</t>
+  </si>
+  <si>
+    <t>OR BG...74</t>
+  </si>
+  <si>
+    <t>HyperglycemiaNumber of BG &gt;=140mg/dL</t>
+  </si>
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>...2</t>
+  </si>
+  <si>
+    <t>HbA1c</t>
+  </si>
+  <si>
+    <t># of vessels</t>
+  </si>
+  <si>
+    <t>APACHE II</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>pressor?</t>
+  </si>
+  <si>
+    <t>&gt;=2 pressors</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Any cardiac complication? (MI, Arrhythmia, Cardiac arrest, Acute heart failure, vasopressors, inotropes)</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Cardiac arrhythmia</t>
+  </si>
+  <si>
+    <t>Arrhythmias (choice=Frequent PVCs/PACs)</t>
+  </si>
+  <si>
+    <t>Arrhythmias (choice=VFib/Vtach)</t>
+  </si>
+  <si>
+    <t>Arrhythmias (choice=Cardiac arrest (Vfib/Vtach))</t>
+  </si>
+  <si>
+    <t>Arrhythmias (choice=Cardiac arrest (asystole, PEA))</t>
+  </si>
+  <si>
+    <t>Arrhythmias (choice=Other)</t>
+  </si>
+  <si>
+    <t>Specify (1):</t>
+  </si>
+  <si>
+    <t>Cardiac arrest</t>
+  </si>
+  <si>
+    <t>Pulmonary edema</t>
+  </si>
+  <si>
+    <t>Heart Failure</t>
+  </si>
+  <si>
+    <t>HTN</t>
+  </si>
+  <si>
+    <t>Hyperlipidemia</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Smoking?</t>
+  </si>
+  <si>
+    <t>Never smoked</t>
+  </si>
+  <si>
+    <t>hba1c</t>
+  </si>
+  <si>
+    <t>ef</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>hyperlipidemia</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>n_vessels</t>
+  </si>
+  <si>
+    <t>apache_ii</t>
+  </si>
+  <si>
+    <t>pressor</t>
+  </si>
+  <si>
+    <t>ge2_pressor</t>
+  </si>
+  <si>
+    <t>cardiac_complication</t>
+  </si>
+  <si>
+    <t>cardiac_arrhythmia</t>
+  </si>
+  <si>
+    <t>cardiacarrest</t>
+  </si>
+  <si>
+    <t>hypertension</t>
+  </si>
+  <si>
+    <t>heartfailure</t>
+  </si>
+  <si>
+    <t>pulmonaryedema</t>
+  </si>
+  <si>
+    <t>smoking</t>
+  </si>
+  <si>
+    <t>neversmoked</t>
+  </si>
+  <si>
+    <t>arr_pvc</t>
+  </si>
+  <si>
+    <t>arr_vtach</t>
+  </si>
+  <si>
+    <t>arr_arrest_vfib</t>
+  </si>
+  <si>
+    <t>arr_arrest_asystolepea</t>
+  </si>
+  <si>
+    <t>arr_other</t>
+  </si>
+  <si>
+    <t>afib</t>
+  </si>
+  <si>
+    <t>BG...84</t>
+  </si>
+  <si>
+    <t>BG...86</t>
+  </si>
+  <si>
+    <t>BG...88</t>
+  </si>
+  <si>
+    <t>BG...90</t>
+  </si>
+  <si>
+    <t>BG...92</t>
+  </si>
+  <si>
+    <t>BG...94</t>
+  </si>
+  <si>
+    <t>BG...96</t>
+  </si>
+  <si>
+    <t>BG...98</t>
+  </si>
+  <si>
+    <t>BG...100</t>
+  </si>
+  <si>
+    <t>BG...102</t>
+  </si>
+  <si>
+    <t>BG...104</t>
+  </si>
+  <si>
+    <t>BG...106</t>
+  </si>
+  <si>
+    <t>BG...108</t>
+  </si>
+  <si>
+    <t>BG...110</t>
+  </si>
+  <si>
+    <t>BG...112</t>
+  </si>
+  <si>
+    <t>BG...114</t>
+  </si>
+  <si>
+    <t>Time 17:</t>
+  </si>
+  <si>
+    <t>BG...116</t>
+  </si>
+  <si>
+    <t>Time 18:</t>
+  </si>
+  <si>
+    <t>BG...118</t>
+  </si>
+  <si>
+    <t>Time 19:</t>
+  </si>
+  <si>
+    <t>BG...120</t>
+  </si>
+  <si>
+    <t>Time 20:</t>
+  </si>
+  <si>
+    <t>BG...122</t>
+  </si>
+  <si>
+    <t>Time 21:</t>
+  </si>
+  <si>
+    <t>BG...124</t>
+  </si>
+  <si>
+    <t>Time 22:</t>
+  </si>
+  <si>
+    <t>BG...126</t>
+  </si>
+  <si>
+    <t>Time 23:</t>
+  </si>
+  <si>
+    <t>BG...128</t>
+  </si>
+  <si>
+    <t>Time 24:</t>
+  </si>
+  <si>
+    <t>BG...130</t>
+  </si>
+  <si>
+    <t>Time 25:</t>
+  </si>
+  <si>
+    <t>BG...132</t>
+  </si>
+  <si>
+    <t>Time 26:</t>
+  </si>
+  <si>
+    <t>BG...134</t>
+  </si>
+  <si>
+    <t>Time 27:</t>
+  </si>
+  <si>
+    <t>BG...136</t>
+  </si>
+  <si>
+    <t>Time 28:</t>
+  </si>
+  <si>
+    <t>BG...138</t>
+  </si>
+  <si>
+    <t>Time 29:</t>
+  </si>
+  <si>
+    <t>BG...140</t>
+  </si>
+  <si>
+    <t>Time 30:</t>
+  </si>
+  <si>
+    <t>BG...142</t>
+  </si>
+  <si>
+    <t>HyperglycemiaNumber of BF &gt;140mg/dL</t>
+  </si>
+  <si>
+    <t>Hyperglycemia BG &gt; 180mg/dL:</t>
+  </si>
+  <si>
+    <t>time_icu17</t>
+  </si>
+  <si>
+    <t>glucose_icu17</t>
+  </si>
+  <si>
+    <t>time_icu18</t>
+  </si>
+  <si>
+    <t>glucose_icu18</t>
+  </si>
+  <si>
+    <t>time_icu19</t>
+  </si>
+  <si>
+    <t>glucose_icu19</t>
+  </si>
+  <si>
+    <t>time_icu20</t>
+  </si>
+  <si>
+    <t>glucose_icu20</t>
+  </si>
+  <si>
+    <t>time_icu21</t>
+  </si>
+  <si>
+    <t>glucose_icu21</t>
+  </si>
+  <si>
+    <t>time_icu22</t>
+  </si>
+  <si>
+    <t>glucose_icu22</t>
+  </si>
+  <si>
+    <t>time_icu23</t>
+  </si>
+  <si>
+    <t>glucose_icu23</t>
+  </si>
+  <si>
+    <t>time_icu24</t>
+  </si>
+  <si>
+    <t>glucose_icu24</t>
+  </si>
+  <si>
+    <t>time_icu25</t>
+  </si>
+  <si>
+    <t>glucose_icu25</t>
+  </si>
+  <si>
+    <t>time_icu26</t>
+  </si>
+  <si>
+    <t>glucose_icu26</t>
+  </si>
+  <si>
+    <t>time_icu27</t>
+  </si>
+  <si>
+    <t>glucose_icu27</t>
+  </si>
+  <si>
+    <t>time_icu28</t>
+  </si>
+  <si>
+    <t>glucose_icu28</t>
+  </si>
+  <si>
+    <t>time_icu29</t>
+  </si>
+  <si>
+    <t>glucose_icu29</t>
+  </si>
+  <si>
+    <t>time_icu30</t>
+  </si>
+  <si>
+    <t>glucose_icu30</t>
   </si>
 </sst>
 </file>
@@ -2421,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3226,8 +3819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF6723E-FEDE-4F29-9272-6E8BFEC4F8C1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3285,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC267FE4-393C-41AC-8C1C-EE961F6FCDCC}">
   <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5597,4 +6190,1345 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F730E738-71E8-4BB9-9BDD-FAFBA3CE3EC3}">
+  <dimension ref="A1:B146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="56.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>686</v>
+      </c>
+      <c r="B6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>742</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>743</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>744</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>745</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>746</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>747</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>748</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>749</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>750</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>751</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>752</v>
+      </c>
+      <c r="B53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>753</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>754</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>718</v>
+      </c>
+      <c r="B64" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>755</v>
+      </c>
+      <c r="B65" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>719</v>
+      </c>
+      <c r="B66" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>756</v>
+      </c>
+      <c r="B67" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>720</v>
+      </c>
+      <c r="B68" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>757</v>
+      </c>
+      <c r="B69" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>721</v>
+      </c>
+      <c r="B70" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>758</v>
+      </c>
+      <c r="B71" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>722</v>
+      </c>
+      <c r="B72" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>759</v>
+      </c>
+      <c r="B73" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>723</v>
+      </c>
+      <c r="B74" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>760</v>
+      </c>
+      <c r="B75" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>813</v>
+      </c>
+      <c r="B85" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>814</v>
+      </c>
+      <c r="B87" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>815</v>
+      </c>
+      <c r="B89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>816</v>
+      </c>
+      <c r="B91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>817</v>
+      </c>
+      <c r="B93" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>818</v>
+      </c>
+      <c r="B95" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>819</v>
+      </c>
+      <c r="B97" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>204</v>
+      </c>
+      <c r="B98" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>820</v>
+      </c>
+      <c r="B99" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>821</v>
+      </c>
+      <c r="B101" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>822</v>
+      </c>
+      <c r="B103" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>823</v>
+      </c>
+      <c r="B105" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>824</v>
+      </c>
+      <c r="B107" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>825</v>
+      </c>
+      <c r="B109" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>826</v>
+      </c>
+      <c r="B111" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>827</v>
+      </c>
+      <c r="B113" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>828</v>
+      </c>
+      <c r="B115" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>829</v>
+      </c>
+      <c r="B116" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>830</v>
+      </c>
+      <c r="B117" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>831</v>
+      </c>
+      <c r="B118" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>832</v>
+      </c>
+      <c r="B119" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>833</v>
+      </c>
+      <c r="B120" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>834</v>
+      </c>
+      <c r="B121" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>835</v>
+      </c>
+      <c r="B122" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>836</v>
+      </c>
+      <c r="B123" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>837</v>
+      </c>
+      <c r="B124" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>838</v>
+      </c>
+      <c r="B125" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>839</v>
+      </c>
+      <c r="B126" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>840</v>
+      </c>
+      <c r="B127" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>841</v>
+      </c>
+      <c r="B128" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>842</v>
+      </c>
+      <c r="B129" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>843</v>
+      </c>
+      <c r="B130" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>844</v>
+      </c>
+      <c r="B131" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>845</v>
+      </c>
+      <c r="B132" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>846</v>
+      </c>
+      <c r="B133" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>847</v>
+      </c>
+      <c r="B134" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>848</v>
+      </c>
+      <c r="B135" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>849</v>
+      </c>
+      <c r="B136" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>850</v>
+      </c>
+      <c r="B137" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>851</v>
+      </c>
+      <c r="B138" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>852</v>
+      </c>
+      <c r="B139" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>853</v>
+      </c>
+      <c r="B140" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>854</v>
+      </c>
+      <c r="B141" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>855</v>
+      </c>
+      <c r="B142" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>856</v>
+      </c>
+      <c r="B143" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7ED6AA-780D-40B6-8131-5D17C4E940B1}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="90.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>766</v>
+      </c>
+      <c r="B7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>767</v>
+      </c>
+      <c r="B10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>768</v>
+      </c>
+      <c r="B11" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>770</v>
+      </c>
+      <c r="B13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>771</v>
+      </c>
+      <c r="B14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>772</v>
+      </c>
+      <c r="B15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>773</v>
+      </c>
+      <c r="B16" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>774</v>
+      </c>
+      <c r="B17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>775</v>
+      </c>
+      <c r="B18" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>776</v>
+      </c>
+      <c r="B19" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>777</v>
+      </c>
+      <c r="B20" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>778</v>
+      </c>
+      <c r="B21" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>779</v>
+      </c>
+      <c r="B22" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>780</v>
+      </c>
+      <c r="B23" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>782</v>
+      </c>
+      <c r="B25" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>783</v>
+      </c>
+      <c r="B26" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>784</v>
+      </c>
+      <c r="B27" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>785</v>
+      </c>
+      <c r="B28" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>786</v>
+      </c>
+      <c r="B29" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>787</v>
+      </c>
+      <c r="B30" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>788</v>
+      </c>
+      <c r="B31" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>789</v>
+      </c>
+      <c r="B32" t="s">
+        <v>806</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>